--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12495"/>
+    <workbookView windowWidth="14205" windowHeight="13245"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+  <si>
+    <t>Counting Sort</t>
+  </si>
   <si>
     <t>Tamanho do vetor (em inteiros)</t>
   </si>
@@ -24,12 +27,6 @@
   <si>
     <t>Tempo de execução (ms)</t>
   </si>
-  <si>
-    <t>Counting sort</t>
-  </si>
-  <si>
-    <t>Conting sort</t>
-  </si>
 </sst>
 </file>
 
@@ -37,9 +34,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -57,7 +54,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -65,24 +62,100 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -102,107 +175,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,13 +226,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,169 +388,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,15 +528,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -563,9 +551,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,6 +575,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -599,62 +607,51 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -663,100 +660,100 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1109,8 +1106,8 @@
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1121,31 +1118,31 @@
     <col min="5" max="5" width="26.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34" customHeight="1" spans="1:5">
+    <row r="1" ht="28" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B1" s="2"/>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="14" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" ht="15" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5">
+    <row r="3" ht="14" customHeight="1" spans="1:5">
       <c r="A3" s="5">
         <v>1000</v>
       </c>
@@ -1184,7 +1181,7 @@
         <v>100000</v>
       </c>
       <c r="E5" s="6">
-        <v>399997</v>
+        <v>2.293</v>
       </c>
     </row>
     <row r="6" ht="13.5" spans="1:5">
@@ -1198,13 +1195,13 @@
         <v>1000000</v>
       </c>
       <c r="E6" s="8">
-        <v>2199997</v>
+        <v>20.388</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
